--- a/medicine/Médecine vétérinaire/Uncinaria/Uncinaria.xlsx
+++ b/medicine/Médecine vétérinaire/Uncinaria/Uncinaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Uncinaria est un genre de nématodes de la famille des Ancylostomatidae. Ce sont des espèces qui parasitent les chats, les chiens et les renards ainsi que les humains.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (7 février 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (7 février 2024) :
 Uncinaria criniformis (Goeze, 1782) - parasite des blaireaux et renards
 Uncinaria eriniformis
 Uncinaria hamiltoni Baylis, 1933
@@ -521,7 +535,7 @@
 Uncinaria lyonsi Kuzmina &amp; Kuzmin, 2015
 Uncinaria sanguinis Marcus, Higgins, Slapeta &amp; Gray, 2014
 Uncinaria stenocephala (Railliet, 1884) - parasite des chiens, chats et renards
-Le Dictionary of Parasitology ajoute également l'espèce[2].
+Le Dictionary of Parasitology ajoute également l'espèce.
 Uncinaria yukonensis Wolfgang, 1956 - parasite des ours</t>
         </is>
       </c>
@@ -550,10 +564,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Uncinaria Frölich (d), 1789[1].
-Uncinaria a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Uncinaria Frölich (d), 1789.
+Uncinaria a pour synonymes :
 Dachmius Baillet, 1862
 Dochmia Braddon, 1893
 Dochmins Leuckart, 1865
